--- a/amelioration-mapping/ig/StructureDefinition-ror-act-type.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-act-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-act-type.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-act-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-act-type.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-act-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-act-type.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-act-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
